--- a/outputs/flood_report.xlsx
+++ b/outputs/flood_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Emergency assistance</t>
+          <t>Flood relief</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -507,30 +507,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gampaha</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
+          <t>Kandy</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>dry rations</t>
+          <t>Traffic management</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Stable</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Matara</t>
+          <t>Kalutara</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -539,226 +537,33 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Rescue team</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Critical</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Colombo</t>
+          <t>Gampaha</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rescue</t>
+          <t>dry rations</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Gampaha</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Dengue prevention</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Kandy</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>assistance for affected shops</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Gampaha</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
-        <v>200</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>milk powder</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Stable</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Gampaha</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>helicopter</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ratnapura</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Warning issued</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Gampaha</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>generator fuel</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Kandy</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Sluice gates opened</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Gampaha</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Emergency response</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Kegalle</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>10</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>rescue</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>

--- a/outputs/flood_report.xlsx
+++ b/outputs/flood_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Flood relief</t>
+          <t>Emergency assistance</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -564,6 +564,512 @@
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Matara</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Rescue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Galle</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Dengue prevention</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>evacuation</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Kandy</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>assistance</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>200</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>milk powder</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Nuwara Eliya</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>helicopter</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ratnapura</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Warning issued</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Kalutara</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Bridge safety assessment</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Rescue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>50</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>generator fuel</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kandy</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sluice gates opened</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Navy assistance</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Kalutara</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>8</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Rescue and assistance</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Matara</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Safety warning</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>everything</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Galle</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Gampaha</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Emergency response</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Colombo</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Shelter</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Kegalle</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>10</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>rescue</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
